--- a/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,319 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6059</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3824</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006864</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安核心资产策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2544</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011052</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘裕一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001190</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华弘裕一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001191</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华弘润灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+      <c r="D3" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1172,64 +918,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.31</v>
       </c>
     </row>
@@ -515,6 +532,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -912,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002683-广东宏大.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.31</v>
       </c>
     </row>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.80</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6248</t>
+          <t>0.6410</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3938</t>
+          <t>0.4732</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006864</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安核心资产策略混合</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2626</t>
+          <t>0.4042</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014155</t>
+          <t>006864</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰君安中证500指数增强A</t>
+          <t>国联安核心资产策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0810</t>
+          <t>0.2424</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014156</t>
+          <t>014325</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰君安中证500指数增强C</t>
+          <t>国联安核心趋势一年持有混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.1225</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0468</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -816,34 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>014326</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>国联安核心趋势一年持有混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -852,6 +871,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1249,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
